--- a/biology/Zoologie/Heterodon_nasicus/Heterodon_nasicus.xlsx
+++ b/biology/Zoologie/Heterodon_nasicus/Heterodon_nasicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heterodon nasicus, la Couleuvre à nez retroussé[1], est une espèce de serpents de la famille des Dipsadidae[2] vivant en Amérique centrale et en Amérique du Nord.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heterodon nasicus, la Couleuvre à nez retroussé, est une espèce de serpents de la famille des Dipsadidae vivant en Amérique centrale et en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Canada dans les provinces du Manitoba, d'Alberta et de la Saskatchewan ;
 aux États-Unis dans le Montana, le Dakota du Nord, le Dakota du Sud, le Nebraska, l'Est du Wyoming, l'Illinois, l'Est du Colorado, le Nouveau-Mexique, le Kansas, l'Oklahoma, le Texas et l'Ouest du Minnesota ;
 au Mexique dans les États du Chihuahua, de Durango, de Coahuila, du Nuevo León, de Tamaulipas, dans le nord du Zacatecas, dans le San Luis Potosí et dans l'Aguascalientes.</t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent ovipare est brun-sable, avec des taches sombres, bien qu'il existe des variations importantes entre les différentes sous-espèces. Il atteint de 40 à 80 centimètres, les femelles étant en général plus grandes.
 C'est un reptile diurne qui se nourrit de rongeurs, lézards et surtout d'amphibiens. La reproduction a lieu au printemps, et les femelles pondent de 4 à 23 œufs dans le courant de l'été, qui éclosent environ deux mois plus tard. Les petits mesurent de 15 à 20 cm à la naissance, et atteignent leur maturité sexuelle vers 2 ans.
@@ -578,9 +594,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèces Heterodon nasicus kennerlyi[3] a été élevés au rang d'espèce sous le nom de Heterodon kennerlyi. La sous-espèce  Heterodon nasicus gloydi est devenu un synonyme de Heterodon nasicus[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèces Heterodon nasicus kennerlyi a été élevés au rang d'espèce sous le nom de Heterodon kennerlyi. La sous-espèce  Heterodon nasicus gloydi est devenu un synonyme de Heterodon nasicus.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baird &amp; Girard, 1852 : Characteristics of some new reptiles in the museum of the Smithsonian Institution. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 6, p. 68-70 (texte intégral).</t>
         </is>
